--- a/Working notes/fields.xlsx
+++ b/Working notes/fields.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kamal\DataAnalyticsBootCamp\Project3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kamal\DataAnalyticsBootCamp\Project3\Code\Project-3-Group-2\Working notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A88322AA-FC8C-4335-BE8F-FF33312993D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166D2C76-3E5E-4B52-9577-5FB6BEE534E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-7020" windowWidth="29040" windowHeight="15840" xr2:uid="{D7AA8AFA-C652-4C52-91E0-8C2AE785B33A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
   <si>
     <t>File Name</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>String/varchar</t>
+  </si>
+  <si>
+    <t>depth</t>
+  </si>
+  <si>
+    <t>focal_depth</t>
   </si>
 </sst>
 </file>
@@ -176,12 +182,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4805501-8739-4C99-9ED1-EE89EDC538AE}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -586,27 +593,27 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
         <v>33</v>
@@ -614,27 +621,27 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -642,69 +649,83 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>30</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>32</v>
       </c>
     </row>

--- a/Working notes/fields.xlsx
+++ b/Working notes/fields.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kamal\DataAnalyticsBootCamp\Project3\Code\Project-3-Group-2\Working notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166D2C76-3E5E-4B52-9577-5FB6BEE534E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF13A25-B179-499C-BA8E-801A6B6550EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-7020" windowWidth="29040" windowHeight="15840" xr2:uid="{D7AA8AFA-C652-4C52-91E0-8C2AE785B33A}"/>
   </bookViews>
@@ -25,17 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
-  <si>
-    <t>File Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>Table Name</t>
   </si>
   <si>
-    <t>DB name</t>
-  </si>
-  <si>
     <t>year</t>
   </si>
   <si>
@@ -51,15 +45,9 @@
     <t>Coordinates</t>
   </si>
   <si>
-    <t>earthquake_id</t>
-  </si>
-  <si>
     <t>ID Earthquake</t>
   </si>
   <si>
-    <t>magnitude</t>
-  </si>
-  <si>
     <t>EQ Primary</t>
   </si>
   <si>
@@ -72,9 +60,6 @@
     <t>injuries</t>
   </si>
   <si>
-    <t>damage</t>
-  </si>
-  <si>
     <t>houses_destroyed</t>
   </si>
   <si>
@@ -102,15 +87,6 @@
     <t>i_d</t>
   </si>
   <si>
-    <t>Datatype</t>
-  </si>
-  <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
     <t>eq_primary</t>
   </si>
   <si>
@@ -123,16 +99,13 @@
     <t>coordinates.lat</t>
   </si>
   <si>
-    <t>float/decimal</t>
-  </si>
-  <si>
-    <t>String/varchar</t>
-  </si>
-  <si>
     <t>depth</t>
   </si>
   <si>
     <t>focal_depth</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -182,13 +155,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,230 +475,142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4805501-8739-4C99-9ED1-EE89EDC538AE}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="46.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
